--- a/填写信息汇总.xlsx
+++ b/填写信息汇总.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$32</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="180">
   <si>
     <t>文件命名</t>
   </si>
@@ -59,70 +58,511 @@
     <t>签名图片</t>
   </si>
   <si>
-    <t>ES28847 ANEXO I DENIA</t>
-  </si>
-  <si>
-    <t>Li Shuna</t>
+    <t>ES31546 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Gu Yongfang</t>
   </si>
   <si>
     <t>CHINA</t>
   </si>
   <si>
-    <t>411002197407232041</t>
-  </si>
-  <si>
-    <t>xu chang tai sheng de mao yi you xian gong si</t>
-  </si>
-  <si>
-    <t>Henanxuchangjingjijishukaifaqu Tun Li Lu 220Hao</t>
+    <t>640221198502282721</t>
+  </si>
+  <si>
+    <t>fu zhou ru xin ke ji you xian gong si</t>
+  </si>
+  <si>
+    <t>NO. 08 Storefront,1F A4 Building, Baihuaxinyuanxiaoqu NO. 90 Baihuazhou Road, Jianxin Town, Cangshan, Fuzhou, Fujian</t>
+  </si>
+  <si>
+    <t>FUJIAN</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>ES31543 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Zhang Xiaojuan</t>
+  </si>
+  <si>
+    <t>330725198305295427</t>
+  </si>
+  <si>
+    <t>Yiwu Ouran e-commerce Co.,Ltd</t>
+  </si>
+  <si>
+    <t>Zhe Jiang Jin Hua Yi Wu Hou Zhai Jie Dao Qi Hang Lu 5 Hao</t>
+  </si>
+  <si>
+    <t>ZHEJIANG</t>
+  </si>
+  <si>
+    <t>ES31589 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Li Zi</t>
+  </si>
+  <si>
+    <t>510113197907112027</t>
+  </si>
+  <si>
+    <t>cheng du rui da xing shang mao you xian gong si</t>
+  </si>
+  <si>
+    <t>sichuansheng chengdushi jinjiangqu jingkanglu769hao 1dong2danyuan11ceng7hao</t>
+  </si>
+  <si>
+    <t>SICHUAN</t>
+  </si>
+  <si>
+    <t>ES31588 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Liang Shuili</t>
+  </si>
+  <si>
+    <t>442523196004094116</t>
+  </si>
+  <si>
+    <t>Shenzhen Haobang Leda Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>Guangdong Shenzhenshi Longgangqu Nanwanjiedao Danzhutoushequ Weidu 91hao301</t>
+  </si>
+  <si>
+    <t>GUANGDONG</t>
+  </si>
+  <si>
+    <t>ES31562 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Liu Yongyi</t>
+  </si>
+  <si>
+    <t>350582198304140511</t>
+  </si>
+  <si>
+    <t>jin jiang shi wei an mao yi you xian gong si</t>
+  </si>
+  <si>
+    <t>Fujian Quanzhou Jinjiang Chendai Town Xianshi Village Wanxing Road 27</t>
+  </si>
+  <si>
+    <t>ES31563 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Yin Haijun</t>
+  </si>
+  <si>
+    <t>411302198007134232</t>
+  </si>
+  <si>
+    <t>shengtaidianzishenzhenyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi longhuaqu longhuajiedao fukangshequ donghuanyilu liangjidasha4ceng427</t>
+  </si>
+  <si>
+    <t>ES31558 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Wang Ke</t>
+  </si>
+  <si>
+    <t>610528198910015724</t>
+  </si>
+  <si>
+    <t>xiankekemushangmaoyouxiangongsi</t>
+  </si>
+  <si>
+    <t>shaanxisheng, xianshi, lianhuqu, fenghuinanlu, shiweixiqu,1zhuang10102shi</t>
+  </si>
+  <si>
+    <t>SHANXI</t>
+  </si>
+  <si>
+    <t>ES31557 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>TIAN JIANGTAO</t>
+  </si>
+  <si>
+    <t>130635199401133211</t>
+  </si>
+  <si>
+    <t>BAODINGCHANGZHESHANGMAOYOUXIANGONGSI</t>
+  </si>
+  <si>
+    <t>HEBEISHENG BAODINGSHI LIXIAN SANGYUANZHEN YANGDONGCUN YONGANLU1QU134HAO</t>
+  </si>
+  <si>
+    <t>071400</t>
+  </si>
+  <si>
+    <t>HEBEI</t>
+  </si>
+  <si>
+    <t>ES31581 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Xu Yongbo</t>
+  </si>
+  <si>
+    <t>421181199402111357</t>
+  </si>
+  <si>
+    <t>shenzhenyongtuodianzishangwuyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi longhuaqu 3rd Floor, No. 6, North District, Fuquan New Village, Helian Community, Longhua Street</t>
+  </si>
+  <si>
+    <t>ES31136 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Li Ziyan</t>
+  </si>
+  <si>
+    <t>440921199208247429</t>
+  </si>
+  <si>
+    <t>Shenzhenshiyishengxinxuanshangmaoyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng Shenzhenshi longgangqu baolongjiedao tongxinshequ zhongjunlanwancuilinghuayuanyiqi 14-2403</t>
+  </si>
+  <si>
+    <t>ES31572 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Ruan Naiying</t>
+  </si>
+  <si>
+    <t>350102198305162428</t>
+  </si>
+  <si>
+    <t>lianjiangruoquanmaoyifazhanyouxiangongsi</t>
+  </si>
+  <si>
+    <t>fujiansheng fuzhoushi lianjiangxian fengchengzhen guotailu1hao dingsenzhongyanggongyuan11-2405</t>
+  </si>
+  <si>
+    <t>ES31420 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Liu Jike</t>
+  </si>
+  <si>
+    <t>410782199502280058</t>
+  </si>
+  <si>
+    <t>jinhuashijiangliuyangmaoyiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>Zhejiang Yiwu City Choujiang Street Chouzhou West Road, No. 398 Building 5, 6th Floor</t>
+  </si>
+  <si>
+    <t>ES31595 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Cao Xiaofeng</t>
+  </si>
+  <si>
+    <t>420281198808040034</t>
+  </si>
+  <si>
+    <t>wuhanlazhitukejiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>hubeisheng wuhanshi hongshanqu  gaoxindadao116hao changhanglanjingguoji7haolou zhuloudong15ceng04shi</t>
+  </si>
+  <si>
+    <t>HUBEI</t>
+  </si>
+  <si>
+    <t>ES31577 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Liu Di</t>
+  </si>
+  <si>
+    <t>230107198206110643</t>
+  </si>
+  <si>
+    <t>shenzhenshilangbotechuangxinkejiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi longgangqu nanwanjiedao xialilangshequ xialinanlu73hao dongjiuchuangxinkejiyuanerqi 6dong 1210B-K92</t>
+  </si>
+  <si>
+    <t>ES31575 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Wu Weisen</t>
+  </si>
+  <si>
+    <t>360721199704010032</t>
+  </si>
+  <si>
+    <t>shenzhenmingsenchuangxiangwangluokejiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi longhuaqu songheshequ longhuajiedao gonghehuayuan20dong905</t>
+  </si>
+  <si>
+    <t>ES31574 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>LEI xuelu</t>
+  </si>
+  <si>
+    <t>362523199111070068</t>
+  </si>
+  <si>
+    <t>Shen Zhen Shi Xin Xing Ke Ji You Xian Gong Si</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi longgangqu Hua Nan Cheng Guo Dian C Zuo 1502</t>
+  </si>
+  <si>
+    <t>ES31583 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Chen Kang</t>
+  </si>
+  <si>
+    <t>330822198809211211</t>
+  </si>
+  <si>
+    <t>yiwushiweijiedianzishangwuyouxiangongsi</t>
+  </si>
+  <si>
+    <t>zhejiangsheng jinhuashi yiwushi, Room 503, Building A1, Xingfuli E-Commerce Park, No. 588 Chunhua Road, Beiyuan Street</t>
+  </si>
+  <si>
+    <t>ES31590 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>ZHONG HAOLI</t>
+  </si>
+  <si>
+    <t>445281199411020409</t>
+  </si>
+  <si>
+    <t>shenzhenjingfengmaoyiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi futianqu futianqu yuanlingjiedao hualinshequ baguasanlu bagualinggongyequ533dong4cengD10</t>
+  </si>
+  <si>
+    <t>ES31587 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Tian Xiaoqun</t>
+  </si>
+  <si>
+    <t>511124198607212821</t>
+  </si>
+  <si>
+    <t>suzhoudandilianmaoyiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>jiangsusheng suzhoushi gusuqupinglonglu1001hao lianshidasha6lou7hao gongwei</t>
+  </si>
+  <si>
+    <t>JIANGSU</t>
+  </si>
+  <si>
+    <t>ES31584 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Deng Tuzhen</t>
+  </si>
+  <si>
+    <t>450525196506223347</t>
+  </si>
+  <si>
+    <t>Shenzhen yeziyiming Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi longgangqu 1210B-K75, Building 6, Dongjiu Innovation and Technology Park Phase II, No. 73 Xiali South</t>
+  </si>
+  <si>
+    <t>ES31578 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Zhong Dejie</t>
+  </si>
+  <si>
+    <t>450512199401290019</t>
+  </si>
+  <si>
+    <t>shenzhenjiexiwangluokejiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi baoanqu 813, Wanjun Business and Trade Building,No. 21, Baoxing Road, N26 District, Haibin Communi</t>
+  </si>
+  <si>
+    <t>ES31608 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Yu Mengyang</t>
+  </si>
+  <si>
+    <t>410181199902014032</t>
+  </si>
+  <si>
+    <t>zhoukouyuerenshangmaoyouxiangongsi</t>
+  </si>
+  <si>
+    <t>henansheng zhoukoushi chuanhuiqu chuanhuiqu jianyesenlinbandao2haolou 1danyuan301shi</t>
   </si>
   <si>
     <t>HENAN</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>ES28970 ANEXO I DENIA</t>
-  </si>
-  <si>
-    <t>Qiu Chengshi</t>
-  </si>
-  <si>
-    <t>330327198910128812</t>
-  </si>
-  <si>
-    <t>yi wu shi ruo tong mao yi you xian gong si</t>
-  </si>
-  <si>
-    <t>Zhe jiang sheng yi wu shi chou jiang jie dao cheng dian nan lu 778 hao 3 hao lou 1 dan yuan 13 lou 1301shi</t>
-  </si>
-  <si>
-    <t>ZHEJIANG</t>
-  </si>
-  <si>
-    <t>ES29035 ANEXO I DENIA</t>
-  </si>
-  <si>
-    <t>Tong Xiaoyu</t>
-  </si>
-  <si>
-    <t>340122199612121827</t>
-  </si>
-  <si>
-    <t>ShenzhenShi Jia jue Ke JI You Xian Gong Si</t>
-  </si>
-  <si>
-    <t>shen zhen shi bao an qu xin qiao jie dao sha qi she qu zhong xin lu 16hao B1105</t>
-  </si>
-  <si>
-    <t>GUANGDONG</t>
+    <t>ES31586 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Ma Weisen</t>
+  </si>
+  <si>
+    <t>440582199511202339</t>
+  </si>
+  <si>
+    <t>shenzhenshijinchengruikejiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi nanshanqu xilijiedao songpingshanshequlangshanlu13hao nanmenxiceqinghuaxinxigangkeyanlou4ceng405A-2</t>
+  </si>
+  <si>
+    <t>ES31614 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Yang Lisheng</t>
+  </si>
+  <si>
+    <t>510105197802033015</t>
+  </si>
+  <si>
+    <t>Shenzhen Yunpao Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi nanshanqu xilijiedao songpingshanshequ langshanlu13hao nanmenxice qinghuaxinxigangkeyanlou4ceng405Ahao</t>
+  </si>
+  <si>
+    <t>ES31579 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Zhong Cheng</t>
+  </si>
+  <si>
+    <t>421003199510223511</t>
+  </si>
+  <si>
+    <t>wuhanmengmawenhuachuanboyouxiangongsi</t>
+  </si>
+  <si>
+    <t>hu bei sheng Wu Han Shi Hong Shan Qu Bai Sha Si Lu 50Hao Zi Yun Fu Er Qi 2Dong 1Dan Yuan 24ceng4shi</t>
+  </si>
+  <si>
+    <t>ES31591 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Liang Mei</t>
+  </si>
+  <si>
+    <t>440981198802078623</t>
+  </si>
+  <si>
+    <t>SHENZHENSHIYUZHUKEJIYOUXIANGONGSI</t>
+  </si>
+  <si>
+    <t>GUANGDONG, SHENZHENSHI, LONGGANGQU, NANWANJIEDAO, DANZHUTOUSHEQU, ZHONGXINGLU19HAO, JINSHENGDASHA1208</t>
+  </si>
+  <si>
+    <t>ES31598 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>He Yanmei</t>
+  </si>
+  <si>
+    <t>43102619851016252X</t>
+  </si>
+  <si>
+    <t>shenzhenshixiangdeshengkejiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi guangmingqu matianjiedao xinzhuangshequ nanzhuangzhongxinjie shiyipai3hao601</t>
+  </si>
+  <si>
+    <t>ES31610 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Ke Hongliang</t>
+  </si>
+  <si>
+    <t>420222197203231415</t>
+  </si>
+  <si>
+    <t>Hangzhouyouyuekekejiyouxiangongsi</t>
+  </si>
+  <si>
+    <t>zhejiangsheng hangzhoushi shangchengqu No. 5000 Jiangdong 1st Road, Qianjin Street Room 7468, Qianjin Zhongzhi Entrepreneurship</t>
+  </si>
+  <si>
+    <t>ES31601 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Yang Jiawei</t>
+  </si>
+  <si>
+    <t>33032719920807023X</t>
+  </si>
+  <si>
+    <t>foshanshibomengfandianzishangwuyouxiangongsi</t>
+  </si>
+  <si>
+    <t>guangdongsheng foshanshi Shundequ rongguijiedao hongxingshequ wenhaixilu16 hao longguangshangjie 1zuo1201</t>
+  </si>
+  <si>
+    <t>ES31432 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Li Qiaomei</t>
+  </si>
+  <si>
+    <t>360782200006186864</t>
+  </si>
+  <si>
+    <t>ShenZhenShiOuKeDaWangLuoKeJiYouXianGongSi</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi Fu Tian Qu Fu Tian Jie Da Gang Sha She Qu Cai Tian Lu 3069hao Xing He Shi Ji Adong 2309b11</t>
+  </si>
+  <si>
+    <t>ES31602 ANEXO I DENIA</t>
+  </si>
+  <si>
+    <t>Li Haibo</t>
+  </si>
+  <si>
+    <t>360311197907162040</t>
+  </si>
+  <si>
+    <t>SHENZHENSHIYIZHILONGKUAJINGDIANSHANGYOUXIANGONGSI</t>
+  </si>
+  <si>
+    <t>guangdongsheng shenzhenshi longhuaqu minzhijiedao minleshequ xinghe2qiEdong1109</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -135,34 +575,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,14 +591,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,6 +630,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,7 +695,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,55 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,31 +755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +791,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,7 +815,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +899,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,21 +922,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,6 +954,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,148 +1027,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,67 +1182,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -832,19 +1272,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>43180</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>918210</xdr:colOff>
+      <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
+      <xdr:rowOff>604520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="ID_8B43017DE18C401C8A411869A7DBB74D"/>
+        <xdr:cNvPr id="5" name="ID_6ECB13BBFE534F31898D61D5C5F93A0F"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -857,8 +1297,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15235555" y="190500"/>
-          <a:ext cx="875030" cy="371475"/>
+          <a:off x="12868275" y="261620"/>
+          <a:ext cx="1362075" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -874,19 +1314,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>31115</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>252095</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
+      <xdr:colOff>1369060</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>614680</xdr:rowOff>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="ID_D175185912A54B6EA9177C7DE9F6389E"/>
+        <xdr:cNvPr id="7" name="ID_D1D1ED0EE44E49B68EA3FDF17A49EDE1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -899,8 +1339,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15211425" y="827405"/>
-          <a:ext cx="923925" cy="362585"/>
+          <a:off x="12880340" y="876300"/>
+          <a:ext cx="1337945" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -918,17 +1358,17 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
+      <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>467995</xdr:rowOff>
+      <xdr:rowOff>967105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="ID_74A3B81C0DEE451199C0273C4DA785B3"/>
+        <xdr:cNvPr id="9" name="ID_5F0914445CBD49FE857E8E28E657F622"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -941,8 +1381,1184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15211425" y="1487805"/>
-          <a:ext cx="923925" cy="412750"/>
+          <a:off x="12868275" y="1460500"/>
+          <a:ext cx="1362075" cy="896620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_4E2833662F8D493F974AD4A036F1F273"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="2704465"/>
+          <a:ext cx="1362075" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>729615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="ID_15C9339A45F340F3A24A98731C351930"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="3583940"/>
+          <a:ext cx="1362075" cy="593090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>421640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>958850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="ID_2472B040AB1A490EBCE43EDA64F5D5B8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="4726305"/>
+          <a:ext cx="1362075" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>732790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="ID_C9014EABEEAF434587B3061F22154113"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="5809615"/>
+          <a:ext cx="1362075" cy="599440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>706120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="ID_5146362D682D4C958712BDD491327287"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="6694170"/>
+          <a:ext cx="1362075" cy="545465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>456565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="ID_E0F621E868D546BBA17C8077734FA033"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="7847330"/>
+          <a:ext cx="1362075" cy="467360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>353695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1026795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="ID_9533ED60E5E94487B305D1D9BFEC8165"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="9116060"/>
+          <a:ext cx="1362075" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>417830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>791210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="ID_24BC9CF6DAE9428DA78A50880548A598"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="10551795"/>
+          <a:ext cx="1362075" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>723265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="ID_B522DA608C854BC491C9F616C61B676A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="11476990"/>
+          <a:ext cx="1362075" cy="580390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>337820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>871220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="ID_6E7673D9A2F94EEA97EA3978AB779DD3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="12529185"/>
+          <a:ext cx="1362075" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>417830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1134745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="ID_A5FBB292B4C24B5B97C88BE3B9D35AF6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="13809345"/>
+          <a:ext cx="1362075" cy="716915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>422275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>787400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="ID_CE992FE477084EADAD1B971290622CD2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="15356840"/>
+          <a:ext cx="1362075" cy="365125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>189865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>676910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="ID_0365481580944E3E9C9C0F8AAB0BF45F"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="16324580"/>
+          <a:ext cx="1362075" cy="487045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>389890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>819150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="ID_3AAB7A7DDE8C42C48B3BCBC868996588"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="17381855"/>
+          <a:ext cx="1362075" cy="429260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>488950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>892175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="ID_625E0CCC5AD24515A67DDAE9B4875063"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="18681065"/>
+          <a:ext cx="1362075" cy="403225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>368935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>669290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="ID_F84C1927D2254117815FFE3FAEDE0906"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="19932650"/>
+          <a:ext cx="1362075" cy="300355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>474345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>906780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="ID_60E5F4B13BFC43D58A1E700340B68F11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="21066760"/>
+          <a:ext cx="1362075" cy="432435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>529590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>850900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="ID_70B40BDB236247159866F7B2BA06EABB"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="22493605"/>
+          <a:ext cx="1362075" cy="321310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>328295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>880745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="ID_EE6FD7BCD43F4D9DB571CDD9DEC42780"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="23663910"/>
+          <a:ext cx="1362075" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>576580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>975360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="ID_2AEE12770CA84CDCA0E51DCB9AC3CC00"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="25112345"/>
+          <a:ext cx="1362075" cy="398780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>559435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>992505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="ID_1A096F5D0CD94F7488BCEAC842E8F9BC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="26638250"/>
+          <a:ext cx="1362075" cy="433070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>341630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>695960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="ID_8B2A739BB07F42FC90F7AAFA5146DAD1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="27963495"/>
+          <a:ext cx="1362075" cy="354330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>340360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>869315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="ID_28746F3C35194F358684146703D3DE96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="28990925"/>
+          <a:ext cx="1362075" cy="528955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>354330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>854710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="ID_8B93C4013E5343CE8AB0E618ED989ACF"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="30205045"/>
+          <a:ext cx="1362075" cy="500380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>479425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>901065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="ID_181A7FD26F1E46428EE4F6505A39883A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="31530290"/>
+          <a:ext cx="1362075" cy="421640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>378460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>831215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="ID_3C20121C859F471E86730CC2D57FF6FA"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="32800925"/>
+          <a:ext cx="1362075" cy="452755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>424180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>784860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="ID_5CDD4A5070FF4A968F13C45B5A571ED6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="34046795"/>
+          <a:ext cx="1362075" cy="360680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>777240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="ID_480FCEE6A6364588B957912B3DB8A2F1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="35083115"/>
+          <a:ext cx="1362075" cy="516890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1216,24 +2832,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="12.5"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -1249,10 +2869,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1277,8 +2897,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="31.8" customHeight="1" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" customFormat="1" ht="54" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1287,7 +2907,7 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1297,7 +2917,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="1">
-        <v>461000</v>
+        <v>350001</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>19</v>
@@ -1305,8 +2925,8 @@
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1">
-        <v>17</v>
+      <c r="J2" s="5">
+        <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -1315,17 +2935,17 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" ht="67.5" customHeight="1" spans="1:12">
-      <c r="A3" t="s">
+    <row r="3" customFormat="1" ht="41.95" customHeight="1" spans="1:12">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1343,8 +2963,8 @@
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1">
-        <v>17</v>
+      <c r="J3" s="5">
+        <v>6</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>20</v>
@@ -1353,8 +2973,8 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:12">
-      <c r="A4" t="s">
+    <row r="4" customFormat="1" ht="81" customHeight="1" spans="1:12">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1363,17 +2983,17 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="1">
-        <v>518000</v>
+        <v>610000</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1381,8 +3001,8 @@
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1">
-        <v>17</v>
+      <c r="J4" s="5">
+        <v>6</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>20</v>
@@ -1391,17 +3011,2158 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="5" customFormat="1" ht="81" customHeight="1" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>518100</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="67.5" customHeight="1" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1">
+        <v>362200</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="108" customHeight="1" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="67.5" customHeight="1" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1">
+        <v>710000</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="67.5" customHeight="1" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="108" customHeight="1" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1">
+        <v>518100</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="5">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="108" customHeight="1" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5">
+        <v>6</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="94.5" customHeight="1" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1">
+        <v>350500</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="5">
+        <v>6</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="67.5" customHeight="1" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="1">
+        <v>322000</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="5">
+        <v>6</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="94.5" customHeight="1" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="1">
+        <v>430070</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5">
+        <v>6</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="121.5" customHeight="1" spans="1:12">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="5">
+        <v>6</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="94.5" customHeight="1" spans="1:12">
+      <c r="A16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="1">
+        <v>518110</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="5">
+        <v>6</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="67.5" customHeight="1" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="5">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="94.5" customHeight="1" spans="1:12">
+      <c r="A18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="1">
+        <v>322000</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="5">
+        <v>6</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="108" customHeight="1" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5">
+        <v>6</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="81" customHeight="1" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="1">
+        <v>215026</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="5">
+        <v>6</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="108" customHeight="1" spans="1:12">
+      <c r="A21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="1">
+        <v>518100</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="5">
+        <v>6</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="108" customHeight="1" spans="1:12">
+      <c r="A22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="5">
+        <v>6</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="94.5" customHeight="1" spans="1:12">
+      <c r="A23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="1">
+        <v>466001</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="5">
+        <v>6</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="121.5" customHeight="1" spans="1:12">
+      <c r="A24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="5">
+        <v>6</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="121.5" customHeight="1" spans="1:12">
+      <c r="A25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="5">
+        <v>6</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="81" customHeight="1" spans="1:12">
+      <c r="A26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="1">
+        <v>430000</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="5">
+        <v>6</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="94.5" customHeight="1" spans="1:12">
+      <c r="A27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="1">
+        <v>518100</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5">
+        <v>6</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="94.5" customHeight="1" spans="1:12">
+      <c r="A28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="1">
+        <v>518107</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="5">
+        <v>6</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="108" customHeight="1" spans="1:12">
+      <c r="A29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="1">
+        <v>310000</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="5">
+        <v>6</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="94.5" customHeight="1" spans="1:12">
+      <c r="A30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="1">
+        <v>528300</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="5">
+        <v>6</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="94.5" customHeight="1" spans="1:12">
+      <c r="A31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="5">
+        <v>6</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="81" customHeight="1" spans="1:12">
+      <c r="A32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="1">
+        <v>518000</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="5">
+        <v>6</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B4">
+  <autoFilter ref="A1:M32">
+    <extLst/>
+  </autoFilter>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="372"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="434"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="465"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="527"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="558"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="589"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="620"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="651"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="682"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="744"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="775"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="806"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="837"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="868"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="899"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="930"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="961"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="992"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1023"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="495"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="526"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="557"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="588"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="619"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="650"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="681"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="712"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="743"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="774"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="805"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="836"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="867"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="898"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="929"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="960"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="991"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1022"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="370"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="463"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="494"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="556"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="587"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="618"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="649"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="680"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="711"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="742"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="773"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="804"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="835"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="866"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="897"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="928"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="959"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="990"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1021"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="400"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="462"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="555"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="586"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="617"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="648"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="679"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="710"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="741"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="772"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="803"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="834"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="865"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="896"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="927"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="958"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="989"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1020"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="399"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="523"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="554"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="585"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="616"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="647"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="678"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="709"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="740"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="771"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="802"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="833"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="864"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="895"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="926"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="957"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="988"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1019"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="336"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="398"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="460"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="491"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="522"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="553"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="584"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="615"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="646"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="677"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="708"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="739"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="770"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="801"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="832"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="863"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="894"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="925"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="956"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="987"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1018"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="428"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="459"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="552"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="583"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="614"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="645"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="676"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="707"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="738"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="769"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="800"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="831"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="862"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="893"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="924"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="955"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="986"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1017"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="334"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="396"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="427"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="458"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="489"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="520"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="551"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="582"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="613"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="644"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="675"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="706"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="737"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="768"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="799"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="830"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="861"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="892"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="923"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="954"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="985"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1016"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="333"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="395"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="488"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="550"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="581"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="612"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="643"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="674"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="705"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="736"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="767"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="798"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="829"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="860"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="891"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="922"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="953"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="984"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1015"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="332"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="363"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="456"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="487"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="518"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="549"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="580"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="611"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="642"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="673"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="704"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="735"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="766"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="797"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="828"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="859"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="890"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="921"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="952"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="983"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1014"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="331"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="393"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="455"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="486"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="548"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="579"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="610"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="641"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="672"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="703"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="734"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="765"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="796"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="827"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="858"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="889"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="920"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="951"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="982"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1013"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="330"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="423"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="547"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="578"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="609"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="640"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="671"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="702"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="733"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="764"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="795"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="826"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="857"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="888"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="919"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="950"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="981"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1012"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="329"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="391"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="422"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="453"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="484"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="546"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="577"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="608"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="639"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="670"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="701"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="732"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="763"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="794"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="825"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="856"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="887"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="918"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="949"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="980"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1011"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="452"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="483"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="514"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="545"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="576"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="607"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="638"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="669"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="700"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="731"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="762"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="793"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="824"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="855"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="886"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="917"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="948"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="979"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1010"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="451"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="513"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="575"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="606"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="637"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="668"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="699"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="730"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="761"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="792"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="823"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="854"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="885"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="916"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="947"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="978"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1009"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="481"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="512"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="543"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="574"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="605"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="636"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="667"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="698"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="729"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="760"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="791"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="822"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="853"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="884"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="915"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="946"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="977"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1008"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="480"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="542"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="573"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="604"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="635"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="666"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="697"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="728"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="759"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="821"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="852"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="883"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="914"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="945"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="976"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1007"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="355"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="386"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="510"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="541"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="572"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="603"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="634"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="665"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="696"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="727"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="758"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="789"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="820"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="851"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="882"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="913"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="944"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="975"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1006"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="416"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="478"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="509"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="540"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="571"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="602"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="633"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="664"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="695"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="726"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="757"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="788"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="819"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="850"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="881"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="912"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="943"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="974"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1005"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="384"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="415"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="477"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="508"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="539"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="570"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="601"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="632"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="663"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="694"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="725"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="756"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="787"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="818"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="849"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="880"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="911"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="942"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="973"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1004"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="352"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="383"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="507"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="538"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="569"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="600"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="631"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="662"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="693"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="724"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="755"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="786"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="817"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="848"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="879"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="910"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="941"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="972"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1003"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="351"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="382"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="475"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="506"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="537"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="568"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="599"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="630"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="661"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="692"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="723"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="754"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="785"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="816"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="847"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="878"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="909"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="940"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="971"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1002"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="350"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="381"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="474"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="505"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="536"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="567"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="598"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="629"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="660"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="691"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="722"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="753"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="784"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="815"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="846"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="877"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="908"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="939"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="970"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1001"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="349"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="380"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="411"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="504"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="535"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="566"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="597"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="628"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="659"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="690"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="721"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="752"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="783"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="814"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="845"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="876"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="907"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="938"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="969"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1000"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="379"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="472"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="503"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="534"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="565"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="596"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="627"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="658"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="689"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="720"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="751"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="782"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="813"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="844"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="875"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="906"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="937"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="968"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="999"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="471"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="502"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="533"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="564"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="595"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="626"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="657"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="688"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="719"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="750"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="781"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="812"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="843"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="874"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="905"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="936"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="967"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="998"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="501"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="532"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="563"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="594"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="625"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="656"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="687"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="718"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="749"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="780"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="811"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="842"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="873"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="904"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="935"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="966"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="997"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="469"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="531"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="562"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="593"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="624"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="655"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="686"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="748"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="779"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="810"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="841"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="872"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="903"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="934"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="965"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="996"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="437"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="468"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="530"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="561"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="592"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="623"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="654"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="685"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="716"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="747"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="778"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="809"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="840"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="871"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="902"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="933"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="964"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="995"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="405"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="436"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="529"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="622"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="653"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="684"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="715"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="746"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="777"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="808"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="839"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="870"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="901"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="932"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="963"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="994"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A32">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="435"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="466"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="497"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="559"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="590"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="621"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="652"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="683"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="745"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="776"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="807"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="838"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="869"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="900"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="931"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="962"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="993"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
